--- a/Command Dictionary.xlsx
+++ b/Command Dictionary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HARP\Telescope Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosj\Documents\HARP\Pointing-Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961962D-8DB6-4072-97E1-A81301DBE939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" activeTab="2" xr2:uid="{2AF9E324-4D2E-4C65-BD20-6541974353E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Commands!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -134,9 +133,6 @@
     <t>RST</t>
   </si>
   <si>
-    <t>Reset</t>
-  </si>
-  <si>
     <t>IDL</t>
   </si>
   <si>
@@ -327,12 +323,21 @@
   </si>
   <si>
     <t>Camera error</t>
+  </si>
+  <si>
+    <t>Computer Reset</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>Code reset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBDBC93-BD62-4C87-A41C-81919087D78B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -729,7 +734,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -833,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,10 +849,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,10 +860,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,16 +871,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,10 +899,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>53</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +921,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -960,10 +976,10 @@
         <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
         <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,10 +987,10 @@
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,10 +998,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,8 +1011,8 @@
       <c r="B27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{6709E6C6-08ED-4A7A-AA49-849F420005ED}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G15">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1005,7 +1021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C0F29B-1B1D-4C9F-8362-9BFEAE2EBA85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1035,10 +1051,10 @@
         <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,10 +1062,10 @@
         <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,10 +1073,10 @@
         <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,10 +1120,10 @@
         <v>160</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,19 +1131,19 @@
         <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -1138,16 +1154,16 @@
         <v>162</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1155,16 +1171,16 @@
         <v>163</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1172,10 +1188,10 @@
         <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1183,16 +1199,16 @@
         <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1200,16 +1216,16 @@
         <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,10 +1233,10 @@
         <v>167</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,11 +1248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EFCBCE-D2E9-455D-9A29-E7F4DB4C5CF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,54 +1262,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1325,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Command Dictionary.xlsx
+++ b/Command Dictionary.xlsx
@@ -13,11 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
-    <sheet name="Responses" sheetId="2" r:id="rId2"/>
-    <sheet name="Status Message" sheetId="3" r:id="rId3"/>
+    <sheet name="Status Message" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Commands!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Commands!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="164">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -73,9 +72,6 @@
     <t>U8</t>
   </si>
   <si>
-    <t>Resolution</t>
-  </si>
-  <si>
     <t>Bounded time series collect</t>
   </si>
   <si>
@@ -100,9 +96,6 @@
     <t>CTX</t>
   </si>
   <si>
-    <t>Stop continuous time-series collect</t>
-  </si>
-  <si>
     <t>Query status</t>
   </si>
   <si>
@@ -304,12 +297,6 @@
     <t>Collecting</t>
   </si>
   <si>
-    <t>3 bits</t>
-  </si>
-  <si>
-    <t>1 bit</t>
-  </si>
-  <si>
     <t>Y motor driver error</t>
   </si>
   <si>
@@ -332,6 +319,213 @@
   </si>
   <si>
     <t>Code reset</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>QAV</t>
+  </si>
+  <si>
+    <t>Query acceleration vector</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>Acceleration vector</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>QFVU</t>
+  </si>
+  <si>
+    <t>Query fused vertical unit vector</t>
+  </si>
+  <si>
+    <t>FVU</t>
+  </si>
+  <si>
+    <t>Fused vertical unit vector</t>
+  </si>
+  <si>
+    <t>Flight?</t>
+  </si>
+  <si>
+    <t>QGA</t>
+  </si>
+  <si>
+    <t>Query gyro angles</t>
+  </si>
+  <si>
+    <t>QMA</t>
+  </si>
+  <si>
+    <t>Query magnetometer angles</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Gyro angles</t>
+  </si>
+  <si>
+    <t>Magnetometer angles</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>Set camera ISO</t>
+  </si>
+  <si>
+    <t>ISO/4</t>
+  </si>
+  <si>
+    <t>SCG</t>
+  </si>
+  <si>
+    <t>Set camera (analog) gain</t>
+  </si>
+  <si>
+    <t>(gain-1)*(255/7)</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>Set camera mode/resolution</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>Set camera shutter time</t>
+  </si>
+  <si>
+    <t>Shutter speed in us</t>
+  </si>
+  <si>
+    <t>SCW</t>
+  </si>
+  <si>
+    <t>Set camera white balance</t>
+  </si>
+  <si>
+    <t>Blue, in increments of 3/65535</t>
+  </si>
+  <si>
+    <t>Red, in increments of 3/65535</t>
+  </si>
+  <si>
+    <t>SCF</t>
+  </si>
+  <si>
+    <t>Set camera framerate</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Stop continuous time-series collect (also aborts TSC)</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>General Responses</t>
+  </si>
+  <si>
+    <t>Query Responses</t>
+  </si>
+  <si>
+    <t>NTS</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>QCI</t>
+  </si>
+  <si>
+    <t>QCG</t>
+  </si>
+  <si>
+    <t>QCM</t>
+  </si>
+  <si>
+    <t>QCS</t>
+  </si>
+  <si>
+    <t>QCW</t>
+  </si>
+  <si>
+    <t>QCF</t>
+  </si>
+  <si>
+    <t>Query camera ISO</t>
+  </si>
+  <si>
+    <t>Query camera (analog) gain</t>
+  </si>
+  <si>
+    <t>Query camera mode/resolution</t>
+  </si>
+  <si>
+    <t>Query camera shutter time</t>
+  </si>
+  <si>
+    <t>Query camera white balance</t>
+  </si>
+  <si>
+    <t>Query camera framerate</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>KCS</t>
+  </si>
+  <si>
+    <t>High-rate kinematic data collection start</t>
+  </si>
+  <si>
+    <t>KCX</t>
+  </si>
+  <si>
+    <t>High-rate kinematic data collection stop</t>
   </si>
 </sst>
 </file>
@@ -380,7 +574,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -690,666 +895,3016 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E130" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>136</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>136</v>
+      </c>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>137</v>
+      </c>
+      <c r="C161" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E161" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>137</v>
+      </c>
+      <c r="C162" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E162" t="s">
+        <v>67</v>
+      </c>
+      <c r="F162" t="s">
+        <v>77</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>137</v>
+      </c>
+      <c r="C163" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E163" t="s">
+        <v>69</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E164" t="s">
+        <v>52</v>
+      </c>
+      <c r="F164" t="s">
+        <v>41</v>
+      </c>
+      <c r="G164" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>137</v>
+      </c>
+      <c r="C165" t="b">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E165" t="s">
+        <v>72</v>
+      </c>
+      <c r="F165" t="s">
+        <v>138</v>
+      </c>
+      <c r="G165" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E166" t="s">
+        <v>53</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F167" t="s">
+        <v>41</v>
+      </c>
+      <c r="G167" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>137</v>
+      </c>
+      <c r="C168" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E169" t="s">
+        <v>106</v>
+      </c>
+      <c r="F169" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" t="s">
+        <v>101</v>
+      </c>
+      <c r="H169" t="s">
+        <v>77</v>
+      </c>
+      <c r="I169" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>137</v>
+      </c>
+      <c r="C170" t="b">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E170" t="s">
+        <v>100</v>
+      </c>
+      <c r="F170" t="s">
+        <v>77</v>
+      </c>
+      <c r="G170" t="s">
+        <v>101</v>
+      </c>
+      <c r="H170" t="s">
+        <v>77</v>
+      </c>
+      <c r="I170" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E171" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>137</v>
+      </c>
+      <c r="C172" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E172" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>137</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E173" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>137</v>
+      </c>
+      <c r="C174" t="b">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E174" t="s">
+        <v>120</v>
+      </c>
+      <c r="F174" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>137</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E175" t="s">
+        <v>123</v>
+      </c>
+      <c r="F175" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>137</v>
+      </c>
+      <c r="C176" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" t="s">
+        <v>125</v>
+      </c>
+      <c r="F176" t="s">
+        <v>41</v>
+      </c>
+      <c r="G176" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>137</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177" t="s">
+        <v>128</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>129</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>137</v>
+      </c>
+      <c r="C178" t="b">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E178" t="s">
+        <v>132</v>
+      </c>
+      <c r="F178" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G15">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C256">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>129</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>130</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>160</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>161</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>162</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>163</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>164</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>165</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>166</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>167</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Command Dictionary.xlsx
+++ b/Command Dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosj\Documents\HARP\Pointing-Camera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HARP\Pointing-Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E43549-32D2-4D5D-AD02-534E984D0EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -18,23 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Commands!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="166">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -526,12 +521,18 @@
   </si>
   <si>
     <t>High-rate kinematic data collection stop</t>
+  </si>
+  <si>
+    <t>SHD</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,11 +895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,6 +1415,15 @@
       <c r="B25" t="s">
         <v>135</v>
       </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3767,7 +3777,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C256">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C256" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3777,7 +3787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Command Dictionary.xlsx
+++ b/Command Dictionary.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HARP\Pointing-Camera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosj\Documents\HARP\Pointing-Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E43549-32D2-4D5D-AD02-534E984D0EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -532,8 +531,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +541,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier Std"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier Std"/>
@@ -568,9 +582,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,16 +1131,17 @@
       <c r="B11" t="s">
         <v>135</v>
       </c>
-      <c r="C11" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1133,16 +1150,17 @@
       <c r="B12" t="s">
         <v>135</v>
       </c>
-      <c r="C12" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3777,7 +3795,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C256" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C256">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3787,7 +3805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Command Dictionary.xlsx
+++ b/Command Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Commands!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="167">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Shutdown</t>
+  </si>
+  <si>
+    <t>Motor controller error</t>
   </si>
 </sst>
 </file>
@@ -914,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,11 +3880,22 @@
       <c r="A8" t="s">
         <v>91</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B2:B13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/Command Dictionary.xlsx
+++ b/Command Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="1" r:id="rId1"/>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,7 +2884,7 @@
         <v>53</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
         <v>57</v>
@@ -3811,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
